--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2902,28 +2902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2968.801905214143</v>
+        <v>3083.190639263939</v>
       </c>
       <c r="AB2" t="n">
-        <v>4062.045741010578</v>
+        <v>4218.557453412303</v>
       </c>
       <c r="AC2" t="n">
-        <v>3674.36979660538</v>
+        <v>3815.944250841046</v>
       </c>
       <c r="AD2" t="n">
-        <v>2968801.905214143</v>
+        <v>3083190.63926394</v>
       </c>
       <c r="AE2" t="n">
-        <v>4062045.741010578</v>
+        <v>4218557.453412304</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.485405476400701e-07</v>
+        <v>1.603554858764085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.36111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>3674369.79660538</v>
+        <v>3815944.250841046</v>
       </c>
     </row>
     <row r="3">
@@ -3008,28 +3008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1004.494543343724</v>
+        <v>1066.810856370616</v>
       </c>
       <c r="AB3" t="n">
-        <v>1374.393749374528</v>
+        <v>1459.657678059624</v>
       </c>
       <c r="AC3" t="n">
-        <v>1243.223538907964</v>
+        <v>1320.349997908031</v>
       </c>
       <c r="AD3" t="n">
-        <v>1004494.543343724</v>
+        <v>1066810.856370616</v>
       </c>
       <c r="AE3" t="n">
-        <v>1374393.749374528</v>
+        <v>1459657.678059624</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.781686513123374e-06</v>
+        <v>3.012029450951365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.37222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1243223.538907964</v>
+        <v>1320349.997908031</v>
       </c>
     </row>
     <row r="4">
@@ -3114,28 +3114,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>761.1780964967725</v>
+        <v>813.2505175196766</v>
       </c>
       <c r="AB4" t="n">
-        <v>1041.477452434488</v>
+        <v>1112.725236151107</v>
       </c>
       <c r="AC4" t="n">
-        <v>942.0803060969245</v>
+        <v>1006.528301332522</v>
       </c>
       <c r="AD4" t="n">
-        <v>761178.0964967725</v>
+        <v>813250.5175196766</v>
       </c>
       <c r="AE4" t="n">
-        <v>1041477.452434488</v>
+        <v>1112725.236151107</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.088335579739711e-06</v>
+        <v>3.530434912828035e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.702777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>942080.3060969245</v>
+        <v>1006528.301332522</v>
       </c>
     </row>
     <row r="5">
@@ -3220,28 +3220,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>654.3568265842225</v>
+        <v>706.3439067525549</v>
       </c>
       <c r="AB5" t="n">
-        <v>895.3198783183084</v>
+        <v>966.4508949127303</v>
       </c>
       <c r="AC5" t="n">
-        <v>809.8718057209497</v>
+        <v>874.2141779246089</v>
       </c>
       <c r="AD5" t="n">
-        <v>654356.8265842225</v>
+        <v>706343.9067525548</v>
       </c>
       <c r="AE5" t="n">
-        <v>895319.8783183084</v>
+        <v>966450.8949127303</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.256540324653431e-06</v>
+        <v>3.814793379785123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.979166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>809871.8057209498</v>
+        <v>874214.1779246088</v>
       </c>
     </row>
     <row r="6">
@@ -3326,28 +3326,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>596.7053279195317</v>
+        <v>648.6924080878641</v>
       </c>
       <c r="AB6" t="n">
-        <v>816.438554440662</v>
+        <v>887.5695710350839</v>
       </c>
       <c r="AC6" t="n">
-        <v>738.5188046835525</v>
+        <v>802.8611768872114</v>
       </c>
       <c r="AD6" t="n">
-        <v>596705.3279195316</v>
+        <v>648692.4080878642</v>
       </c>
       <c r="AE6" t="n">
-        <v>816438.5544406619</v>
+        <v>887569.5710350838</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.359972383754754e-06</v>
+        <v>3.989650407601755e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.586111111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>738518.8046835525</v>
+        <v>802861.1768872114</v>
       </c>
     </row>
     <row r="7">
@@ -3432,28 +3432,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>553.9788255728523</v>
+        <v>595.5515110451549</v>
       </c>
       <c r="AB7" t="n">
-        <v>757.9782689696855</v>
+        <v>814.859851290332</v>
       </c>
       <c r="AC7" t="n">
-        <v>685.6378868084</v>
+        <v>737.0907707461661</v>
       </c>
       <c r="AD7" t="n">
-        <v>553978.8255728523</v>
+        <v>595551.5110451549</v>
       </c>
       <c r="AE7" t="n">
-        <v>757978.2689696854</v>
+        <v>814859.851290332</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.429851024529838e-06</v>
+        <v>4.107783716944726e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.338888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>685637.8868084</v>
+        <v>737090.7707461661</v>
       </c>
     </row>
     <row r="8">
@@ -3538,28 +3538,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>542.3714803792536</v>
+        <v>583.9441658515562</v>
       </c>
       <c r="AB8" t="n">
-        <v>742.0965871958747</v>
+        <v>798.978169516521</v>
       </c>
       <c r="AC8" t="n">
-        <v>671.2719304530012</v>
+        <v>722.7248143907674</v>
       </c>
       <c r="AD8" t="n">
-        <v>542371.4803792536</v>
+        <v>583944.1658515562</v>
       </c>
       <c r="AE8" t="n">
-        <v>742096.5871958747</v>
+        <v>798978.169516521</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.44881600010554e-06</v>
+        <v>4.139844949125491e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.274999999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>671271.9304530013</v>
+        <v>722724.8143907674</v>
       </c>
     </row>
     <row r="9">
@@ -3644,28 +3644,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>544.5775678293148</v>
+        <v>586.1502533016175</v>
       </c>
       <c r="AB9" t="n">
-        <v>745.1150533707578</v>
+        <v>801.9966356914042</v>
       </c>
       <c r="AC9" t="n">
-        <v>674.0023184525975</v>
+        <v>725.4552023903636</v>
       </c>
       <c r="AD9" t="n">
-        <v>544577.5678293149</v>
+        <v>586150.2533016175</v>
       </c>
       <c r="AE9" t="n">
-        <v>745115.0533707577</v>
+        <v>801996.6356914042</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.448524231250528e-06</v>
+        <v>4.139351699399633e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.274999999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>674002.3184525975</v>
+        <v>725455.2023903637</v>
       </c>
     </row>
   </sheetData>
@@ -3941,28 +3941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1791.024383521255</v>
+        <v>1881.754153261425</v>
       </c>
       <c r="AB2" t="n">
-        <v>2450.558575953025</v>
+        <v>2574.699049626469</v>
       </c>
       <c r="AC2" t="n">
-        <v>2216.680704844631</v>
+        <v>2328.973385942929</v>
       </c>
       <c r="AD2" t="n">
-        <v>1791024.383521256</v>
+        <v>1881754.153261425</v>
       </c>
       <c r="AE2" t="n">
-        <v>2450558.575953025</v>
+        <v>2574699.049626469</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.248975843868473e-06</v>
+        <v>2.162965134975032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.78333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2216680.704844631</v>
+        <v>2328973.385942929</v>
       </c>
     </row>
     <row r="3">
@@ -4047,28 +4047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>781.6967287488037</v>
+        <v>832.0643166220838</v>
       </c>
       <c r="AB3" t="n">
-        <v>1069.551950299885</v>
+        <v>1138.467106089258</v>
       </c>
       <c r="AC3" t="n">
-        <v>967.4754132888535</v>
+        <v>1029.813403332718</v>
       </c>
       <c r="AD3" t="n">
-        <v>781696.7287488037</v>
+        <v>832064.3166220838</v>
       </c>
       <c r="AE3" t="n">
-        <v>1069551.950299885</v>
+        <v>1138467.106089258</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.018946210641909e-06</v>
+        <v>3.496392892181728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.38194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>967475.4132888535</v>
+        <v>1029813.403332718</v>
       </c>
     </row>
     <row r="4">
@@ -4153,28 +4153,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>617.0751796416799</v>
+        <v>657.4375405256716</v>
       </c>
       <c r="AB4" t="n">
-        <v>844.3094842213394</v>
+        <v>899.5350470445062</v>
       </c>
       <c r="AC4" t="n">
-        <v>763.7297720430577</v>
+        <v>813.6846846599457</v>
       </c>
       <c r="AD4" t="n">
-        <v>617075.17964168</v>
+        <v>657437.5405256716</v>
       </c>
       <c r="AE4" t="n">
-        <v>844309.4842213395</v>
+        <v>899535.0470445062</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.298592445379497e-06</v>
+        <v>3.980681726776789e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.119444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>763729.7720430577</v>
+        <v>813684.6846599457</v>
       </c>
     </row>
     <row r="5">
@@ -4259,28 +4259,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>529.3143398744412</v>
+        <v>569.7619521044534</v>
       </c>
       <c r="AB5" t="n">
-        <v>724.2312315168061</v>
+        <v>779.5734389926222</v>
       </c>
       <c r="AC5" t="n">
-        <v>655.111619245759</v>
+        <v>705.1720441133591</v>
       </c>
       <c r="AD5" t="n">
-        <v>529314.3398744412</v>
+        <v>569761.9521044533</v>
       </c>
       <c r="AE5" t="n">
-        <v>724231.2315168062</v>
+        <v>779573.4389926222</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.452073406376868e-06</v>
+        <v>4.246478674851899e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.548611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>655111.619245759</v>
+        <v>705172.0441133591</v>
       </c>
     </row>
     <row r="6">
@@ -4365,28 +4365,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>500.9501420656417</v>
+        <v>541.2271620950615</v>
       </c>
       <c r="AB6" t="n">
-        <v>685.4220847347144</v>
+        <v>740.5308804356835</v>
       </c>
       <c r="AC6" t="n">
-        <v>620.0063629635705</v>
+        <v>669.8556525485194</v>
       </c>
       <c r="AD6" t="n">
-        <v>500950.1420656416</v>
+        <v>541227.1620950615</v>
       </c>
       <c r="AE6" t="n">
-        <v>685422.0847347145</v>
+        <v>740530.8804356834</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.507459357887226e-06</v>
+        <v>4.342395567618433e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.359722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>620006.3629635705</v>
+        <v>669855.6525485194</v>
       </c>
     </row>
     <row r="7">
@@ -4471,28 +4471,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>502.6687595074369</v>
+        <v>542.9457795368568</v>
       </c>
       <c r="AB7" t="n">
-        <v>687.7735729386291</v>
+        <v>742.8823686395981</v>
       </c>
       <c r="AC7" t="n">
-        <v>622.1334284336378</v>
+        <v>671.9827180185869</v>
       </c>
       <c r="AD7" t="n">
-        <v>502668.7595074369</v>
+        <v>542945.7795368568</v>
       </c>
       <c r="AE7" t="n">
-        <v>687773.5729386291</v>
+        <v>742882.3686395981</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.506855696290384e-06</v>
+        <v>4.341350151893457e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.361111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>622133.4284336378</v>
+        <v>671982.7180185869</v>
       </c>
     </row>
   </sheetData>
@@ -4768,28 +4768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>563.780844341515</v>
+        <v>609.4430132596634</v>
       </c>
       <c r="AB2" t="n">
-        <v>771.3898234835183</v>
+        <v>833.8668174700473</v>
       </c>
       <c r="AC2" t="n">
-        <v>697.7694613826675</v>
+        <v>754.283738750134</v>
       </c>
       <c r="AD2" t="n">
-        <v>563780.844341515</v>
+        <v>609443.0132596634</v>
       </c>
       <c r="AE2" t="n">
-        <v>771389.8234835183</v>
+        <v>833866.8174700473</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.225232321243678e-06</v>
+        <v>4.21061839891217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.50972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>697769.4613826675</v>
+        <v>754283.738750134</v>
       </c>
     </row>
     <row r="3">
@@ -4874,28 +4874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>424.2678397254473</v>
+        <v>460.7293916848598</v>
       </c>
       <c r="AB3" t="n">
-        <v>580.5019756884406</v>
+        <v>630.390279649454</v>
       </c>
       <c r="AC3" t="n">
-        <v>525.0996818683749</v>
+        <v>570.2267161180237</v>
       </c>
       <c r="AD3" t="n">
-        <v>424267.8397254474</v>
+        <v>460729.3916848598</v>
       </c>
       <c r="AE3" t="n">
-        <v>580501.9756884406</v>
+        <v>630390.2796494539</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.576177088723004e-06</v>
+        <v>4.874681418689147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.079166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>525099.6818683749</v>
+        <v>570226.7161180236</v>
       </c>
     </row>
   </sheetData>
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>869.1850294510217</v>
+        <v>926.0795627788359</v>
       </c>
       <c r="AB2" t="n">
-        <v>1189.257303032081</v>
+        <v>1267.10291354086</v>
       </c>
       <c r="AC2" t="n">
-        <v>1075.756255163807</v>
+        <v>1146.172389862628</v>
       </c>
       <c r="AD2" t="n">
-        <v>869185.0294510217</v>
+        <v>926079.5627788359</v>
       </c>
       <c r="AE2" t="n">
-        <v>1189257.303032081</v>
+        <v>1267102.91354086</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.823197604697082e-06</v>
+        <v>3.321470083219252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.27222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1075756.255163807</v>
+        <v>1146172.389862628</v>
       </c>
     </row>
     <row r="3">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.285627452499</v>
+        <v>529.27224007694</v>
       </c>
       <c r="AB3" t="n">
-        <v>672.1986694727196</v>
+        <v>724.1736287165531</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.0449718950005</v>
+        <v>655.0595139759158</v>
       </c>
       <c r="AD3" t="n">
-        <v>491285.627452499</v>
+        <v>529272.2400769399</v>
       </c>
       <c r="AE3" t="n">
-        <v>672198.6694727197</v>
+        <v>724173.6287165531</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.475985153891442e-06</v>
+        <v>4.510707228858945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.036111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>608044.9718950004</v>
+        <v>655059.5139759158</v>
       </c>
     </row>
     <row r="4">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>443.2709402662516</v>
+        <v>490.6687533065423</v>
       </c>
       <c r="AB4" t="n">
-        <v>606.5028562059965</v>
+        <v>671.3546350516551</v>
       </c>
       <c r="AC4" t="n">
-        <v>548.6190748418004</v>
+        <v>607.2814909344727</v>
       </c>
       <c r="AD4" t="n">
-        <v>443270.9402662516</v>
+        <v>490668.7533065423</v>
       </c>
       <c r="AE4" t="n">
-        <v>606502.8562059965</v>
+        <v>671354.6350516551</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.575707634876464e-06</v>
+        <v>4.692379932005779e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>548619.0748418004</v>
+        <v>607281.4909344726</v>
       </c>
     </row>
     <row r="5">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>445.759781962624</v>
+        <v>493.1575950029147</v>
       </c>
       <c r="AB5" t="n">
-        <v>609.9081992149196</v>
+        <v>674.7599780605781</v>
       </c>
       <c r="AC5" t="n">
-        <v>551.6994166933808</v>
+        <v>610.3618327860529</v>
       </c>
       <c r="AD5" t="n">
-        <v>445759.781962624</v>
+        <v>493157.5950029147</v>
       </c>
       <c r="AE5" t="n">
-        <v>609908.1992149196</v>
+        <v>674759.9780605781</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.575707634876464e-06</v>
+        <v>4.692379932005779e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>551699.4166933808</v>
+        <v>610361.832786053</v>
       </c>
     </row>
   </sheetData>
@@ -5786,28 +5786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>410.2959466897951</v>
+        <v>454.3091965251317</v>
       </c>
       <c r="AB2" t="n">
-        <v>561.3850152406436</v>
+        <v>621.6058853928936</v>
       </c>
       <c r="AC2" t="n">
-        <v>507.8072172948933</v>
+        <v>562.2806921203346</v>
       </c>
       <c r="AD2" t="n">
-        <v>410295.9466897951</v>
+        <v>454309.1965251317</v>
       </c>
       <c r="AE2" t="n">
-        <v>561385.0152406436</v>
+        <v>621605.8853928936</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.511173347142927e-06</v>
+        <v>4.921090659173287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.673611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>507807.2172948933</v>
+        <v>562280.6921203346</v>
       </c>
     </row>
     <row r="3">
@@ -5892,28 +5892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.9146316213725</v>
+        <v>451.9278814567091</v>
       </c>
       <c r="AB3" t="n">
-        <v>558.1267949078215</v>
+        <v>618.3476650600713</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.8599569376946</v>
+        <v>559.3334317631361</v>
       </c>
       <c r="AD3" t="n">
-        <v>407914.6316213725</v>
+        <v>451927.8814567091</v>
       </c>
       <c r="AE3" t="n">
-        <v>558126.7949078215</v>
+        <v>618347.6650600714</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.529362651231439e-06</v>
+        <v>4.956735834584488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.604166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>504859.9569376946</v>
+        <v>559333.4317631361</v>
       </c>
     </row>
   </sheetData>
@@ -6189,28 +6189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2022.353038790311</v>
+        <v>2113.934397200456</v>
       </c>
       <c r="AB2" t="n">
-        <v>2767.072647592149</v>
+        <v>2892.378302453293</v>
       </c>
       <c r="AC2" t="n">
-        <v>2502.987117716806</v>
+        <v>2616.333776745593</v>
       </c>
       <c r="AD2" t="n">
-        <v>2022353.038790311</v>
+        <v>2113934.397200456</v>
       </c>
       <c r="AE2" t="n">
-        <v>2767072.647592149</v>
+        <v>2892378.302453293</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.169407583663933e-06</v>
+        <v>2.0119437713554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.7625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2502987.117716806</v>
+        <v>2616333.776745593</v>
       </c>
     </row>
     <row r="3">
@@ -6295,28 +6295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>830.3387524513523</v>
+        <v>891.3076505368771</v>
       </c>
       <c r="AB3" t="n">
-        <v>1136.106113064345</v>
+        <v>1219.52644918291</v>
       </c>
       <c r="AC3" t="n">
-        <v>1027.677740168427</v>
+        <v>1103.136556489014</v>
       </c>
       <c r="AD3" t="n">
-        <v>830338.7524513523</v>
+        <v>891307.6505368771</v>
       </c>
       <c r="AE3" t="n">
-        <v>1136106.113064345</v>
+        <v>1219526.44918291</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.957886517169018e-06</v>
+        <v>3.368506958794416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.60972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1027677.740168427</v>
+        <v>1103136.556489014</v>
       </c>
     </row>
     <row r="4">
@@ -6401,28 +6401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>651.3503312631193</v>
+        <v>702.0582715126077</v>
       </c>
       <c r="AB4" t="n">
-        <v>891.2062587827629</v>
+        <v>960.5870997085515</v>
       </c>
       <c r="AC4" t="n">
-        <v>806.1507842603753</v>
+        <v>868.9100151048286</v>
       </c>
       <c r="AD4" t="n">
-        <v>651350.3312631194</v>
+        <v>702058.2715126077</v>
       </c>
       <c r="AE4" t="n">
-        <v>891206.2587827629</v>
+        <v>960587.0997085514</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.244592533012957e-06</v>
+        <v>3.861779271070705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.254166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>806150.7842603753</v>
+        <v>868910.0151048286</v>
       </c>
     </row>
     <row r="5">
@@ -6507,28 +6507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>561.8952250436815</v>
+        <v>612.6884166391903</v>
       </c>
       <c r="AB5" t="n">
-        <v>768.8098359725701</v>
+        <v>838.3073215510082</v>
       </c>
       <c r="AC5" t="n">
-        <v>695.4357042587292</v>
+        <v>758.3004473538945</v>
       </c>
       <c r="AD5" t="n">
-        <v>561895.2250436816</v>
+        <v>612688.4166391903</v>
       </c>
       <c r="AE5" t="n">
-        <v>768809.8359725701</v>
+        <v>838307.3215510081</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.39759214397193e-06</v>
+        <v>4.125012226448193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.66388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>695435.7042587291</v>
+        <v>758300.4473538945</v>
       </c>
     </row>
     <row r="6">
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>515.6994125149225</v>
+        <v>556.3169871289663</v>
       </c>
       <c r="AB6" t="n">
-        <v>705.6026872553093</v>
+        <v>761.1774447631684</v>
       </c>
       <c r="AC6" t="n">
-        <v>638.2609571032532</v>
+        <v>688.5317377542243</v>
       </c>
       <c r="AD6" t="n">
-        <v>515699.4125149226</v>
+        <v>556316.9871289663</v>
       </c>
       <c r="AE6" t="n">
-        <v>705602.6872553093</v>
+        <v>761177.4447631685</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.483439433014403e-06</v>
+        <v>4.272710873942502e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.363888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>638260.9571032532</v>
+        <v>688531.7377542243</v>
       </c>
     </row>
     <row r="7">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>512.402803557587</v>
+        <v>553.0203781716308</v>
       </c>
       <c r="AB7" t="n">
-        <v>701.0921214437601</v>
+        <v>756.6668789516194</v>
       </c>
       <c r="AC7" t="n">
-        <v>634.1808733621393</v>
+        <v>684.4516540131106</v>
       </c>
       <c r="AD7" t="n">
-        <v>512402.8035575871</v>
+        <v>553020.3781716308</v>
       </c>
       <c r="AE7" t="n">
-        <v>701092.1214437601</v>
+        <v>756666.8789516194</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.492861696445894e-06</v>
+        <v>4.288921701106511e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.331944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>634180.8733621393</v>
+        <v>684451.6540131106</v>
       </c>
     </row>
   </sheetData>
@@ -7016,28 +7016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.0818522902971</v>
+        <v>450.0839783588829</v>
       </c>
       <c r="AB2" t="n">
-        <v>556.987349487413</v>
+        <v>615.8247554943622</v>
       </c>
       <c r="AC2" t="n">
-        <v>503.8292585889883</v>
+        <v>557.0513051454523</v>
       </c>
       <c r="AD2" t="n">
-        <v>407081.8522902971</v>
+        <v>450083.9783588829</v>
       </c>
       <c r="AE2" t="n">
-        <v>556987.349487413</v>
+        <v>615824.7554943622</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.466613869856762e-06</v>
+        <v>4.944723089288962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.07777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>503829.2585889883</v>
+        <v>557051.3051454523</v>
       </c>
     </row>
     <row r="3">
@@ -7122,28 +7122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>411.2076474508503</v>
+        <v>454.2097735194361</v>
       </c>
       <c r="AB3" t="n">
-        <v>562.6324444433181</v>
+        <v>621.4698504502675</v>
       </c>
       <c r="AC3" t="n">
-        <v>508.9355936052424</v>
+        <v>562.1576401617064</v>
       </c>
       <c r="AD3" t="n">
-        <v>411207.6474508503</v>
+        <v>454209.7735194361</v>
       </c>
       <c r="AE3" t="n">
-        <v>562632.4444433182</v>
+        <v>621469.8504502674</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.466613869856762e-06</v>
+        <v>4.944723089288962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.07916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>508935.5936052424</v>
+        <v>562157.6401617064</v>
       </c>
     </row>
   </sheetData>
@@ -7419,28 +7419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1257.043839753916</v>
+        <v>1325.6583506181</v>
       </c>
       <c r="AB2" t="n">
-        <v>1719.942838411569</v>
+        <v>1813.824239234527</v>
       </c>
       <c r="AC2" t="n">
-        <v>1555.793907868504</v>
+        <v>1640.715399560291</v>
       </c>
       <c r="AD2" t="n">
-        <v>1257043.839753916</v>
+        <v>1325658.3506181</v>
       </c>
       <c r="AE2" t="n">
-        <v>1719942.83841157</v>
+        <v>1813824.239234527</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.510892692756382e-06</v>
+        <v>2.675903228623589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.29444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1555793.907868504</v>
+        <v>1640715.399560291</v>
       </c>
     </row>
     <row r="3">
@@ -7525,28 +7525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>628.7698680726082</v>
+        <v>677.841126794183</v>
       </c>
       <c r="AB3" t="n">
-        <v>860.3106728657764</v>
+        <v>927.4521339197807</v>
       </c>
       <c r="AC3" t="n">
-        <v>778.2038297010788</v>
+        <v>838.9374039457215</v>
       </c>
       <c r="AD3" t="n">
-        <v>628769.8680726083</v>
+        <v>677841.1267941829</v>
       </c>
       <c r="AE3" t="n">
-        <v>860310.6728657763</v>
+        <v>927452.1339197807</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.226300460521341e-06</v>
+        <v>3.942943545068699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>778203.8297010788</v>
+        <v>838937.4039457215</v>
       </c>
     </row>
     <row r="4">
@@ -7631,28 +7631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>498.9916723550143</v>
+        <v>547.9775902220175</v>
       </c>
       <c r="AB4" t="n">
-        <v>682.7424200750486</v>
+        <v>749.7671140068553</v>
       </c>
       <c r="AC4" t="n">
-        <v>617.58244173809</v>
+        <v>678.210392950794</v>
       </c>
       <c r="AD4" t="n">
-        <v>498991.6723550143</v>
+        <v>547977.5902220175</v>
       </c>
       <c r="AE4" t="n">
-        <v>682742.4200750486</v>
+        <v>749767.1140068553</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485812645785353e-06</v>
+        <v>4.402558908717231e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>617582.44173809</v>
+        <v>678210.392950794</v>
       </c>
     </row>
     <row r="5">
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>472.3520496851388</v>
+        <v>511.5238053163781</v>
       </c>
       <c r="AB5" t="n">
-        <v>646.2929130809181</v>
+        <v>699.8894372714725</v>
       </c>
       <c r="AC5" t="n">
-        <v>584.6116245342752</v>
+        <v>633.0929716792771</v>
       </c>
       <c r="AD5" t="n">
-        <v>472352.0496851388</v>
+        <v>511523.8053163781</v>
       </c>
       <c r="AE5" t="n">
-        <v>646292.9130809181</v>
+        <v>699889.4372714725</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.547075558304239e-06</v>
+        <v>4.511060079045284e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.479166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>584611.6245342751</v>
+        <v>633092.971679277</v>
       </c>
     </row>
     <row r="6">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>474.6886312106599</v>
+        <v>513.8603868418992</v>
       </c>
       <c r="AB6" t="n">
-        <v>649.4899270068378</v>
+        <v>703.0864511973921</v>
       </c>
       <c r="AC6" t="n">
-        <v>587.5035199381423</v>
+        <v>635.9848670831442</v>
       </c>
       <c r="AD6" t="n">
-        <v>474688.6312106599</v>
+        <v>513860.3868418991</v>
       </c>
       <c r="AE6" t="n">
-        <v>649489.9270068378</v>
+        <v>703086.4511973921</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.547231047929921e-06</v>
+        <v>4.511335462726319e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.477777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>587503.5199381423</v>
+        <v>635984.8670831441</v>
       </c>
     </row>
   </sheetData>
@@ -8140,28 +8140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1587.052551300796</v>
+        <v>1676.901594836084</v>
       </c>
       <c r="AB2" t="n">
-        <v>2171.475316506845</v>
+        <v>2294.410741731871</v>
       </c>
       <c r="AC2" t="n">
-        <v>1964.232759984179</v>
+        <v>2075.435400766682</v>
       </c>
       <c r="AD2" t="n">
-        <v>1587052.551300796</v>
+        <v>1676901.594836084</v>
       </c>
       <c r="AE2" t="n">
-        <v>2171475.316506845</v>
+        <v>2294410.74173187</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.332443086557004e-06</v>
+        <v>2.323664395085245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.88055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1964232.759984179</v>
+        <v>2075435.400766681</v>
       </c>
     </row>
     <row r="3">
@@ -8246,28 +8246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>732.4791664945693</v>
+        <v>782.4048736176768</v>
       </c>
       <c r="AB3" t="n">
-        <v>1002.210310298039</v>
+        <v>1070.520865350624</v>
       </c>
       <c r="AC3" t="n">
-        <v>906.5607648941984</v>
+        <v>968.3518564470305</v>
       </c>
       <c r="AD3" t="n">
-        <v>732479.1664945693</v>
+        <v>782404.8736176768</v>
       </c>
       <c r="AE3" t="n">
-        <v>1002210.310298039</v>
+        <v>1070520.865350624</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.085046430667638e-06</v>
+        <v>3.636138910488985e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.14861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>906560.7648941984</v>
+        <v>968351.8564470306</v>
       </c>
     </row>
     <row r="4">
@@ -8352,28 +8352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>569.9589768851786</v>
+        <v>619.8845944997352</v>
       </c>
       <c r="AB4" t="n">
-        <v>779.8430169897302</v>
+        <v>848.1534495727669</v>
       </c>
       <c r="AC4" t="n">
-        <v>705.4158939647784</v>
+        <v>767.206874736384</v>
       </c>
       <c r="AD4" t="n">
-        <v>569958.9768851786</v>
+        <v>619884.5944997352</v>
       </c>
       <c r="AE4" t="n">
-        <v>779843.0169897303</v>
+        <v>848153.4495727669</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.360950207223176e-06</v>
+        <v>4.117291005103595e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.962499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>705415.8939647784</v>
+        <v>767206.8747363839</v>
       </c>
     </row>
     <row r="5">
@@ -8458,28 +8458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>500.8129876101937</v>
+        <v>540.7365030394757</v>
       </c>
       <c r="AB5" t="n">
-        <v>685.234423957943</v>
+        <v>739.8595390694811</v>
       </c>
       <c r="AC5" t="n">
-        <v>619.8366122679505</v>
+        <v>669.2483830600738</v>
       </c>
       <c r="AD5" t="n">
-        <v>500812.9876101937</v>
+        <v>540736.5030394756</v>
       </c>
       <c r="AE5" t="n">
-        <v>685234.423957943</v>
+        <v>739859.5390694811</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.500806456189484e-06</v>
+        <v>4.361188091164452e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.461111111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>619836.6122679505</v>
+        <v>669248.3830600738</v>
       </c>
     </row>
     <row r="6">
@@ -8564,28 +8564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>493.0823783441937</v>
+        <v>533.0058937734758</v>
       </c>
       <c r="AB6" t="n">
-        <v>674.6570633097914</v>
+        <v>729.2821784213294</v>
       </c>
       <c r="AC6" t="n">
-        <v>610.2687400746396</v>
+        <v>659.6805108667627</v>
       </c>
       <c r="AD6" t="n">
-        <v>493082.3783441937</v>
+        <v>533005.8937734758</v>
       </c>
       <c r="AE6" t="n">
-        <v>674657.0633097914</v>
+        <v>729282.1784213294</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.518783621089293e-06</v>
+        <v>4.392538696997983e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>610268.7400746396</v>
+        <v>659680.5108667627</v>
       </c>
     </row>
     <row r="7">
@@ -8670,28 +8670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>495.2172769907129</v>
+        <v>535.1407924199949</v>
       </c>
       <c r="AB7" t="n">
-        <v>677.5781258230398</v>
+        <v>732.2032409345779</v>
       </c>
       <c r="AC7" t="n">
-        <v>612.9110204813607</v>
+        <v>662.3227912734837</v>
       </c>
       <c r="AD7" t="n">
-        <v>495217.2769907129</v>
+        <v>535140.7924199949</v>
       </c>
       <c r="AE7" t="n">
-        <v>677578.1258230398</v>
+        <v>732203.2409345779</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.518935969944376e-06</v>
+        <v>4.392804380098268e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>612911.0204813606</v>
+        <v>662322.7912734838</v>
       </c>
     </row>
   </sheetData>
@@ -8967,28 +8967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2604.03269171822</v>
+        <v>2707.321693610692</v>
       </c>
       <c r="AB2" t="n">
-        <v>3562.952410623478</v>
+        <v>3704.276979801929</v>
       </c>
       <c r="AC2" t="n">
-        <v>3222.909233188554</v>
+        <v>3350.745983834888</v>
       </c>
       <c r="AD2" t="n">
-        <v>2604032.69171822</v>
+        <v>2707321.693610692</v>
       </c>
       <c r="AE2" t="n">
-        <v>3562952.410623479</v>
+        <v>3704276.97980193</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.020237290726227e-06</v>
+        <v>1.734335776601477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.01944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3222909.233188555</v>
+        <v>3350745.983834888</v>
       </c>
     </row>
     <row r="3">
@@ -9073,28 +9073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>947.923156620458</v>
+        <v>999.6103727482558</v>
       </c>
       <c r="AB3" t="n">
-        <v>1296.990282306315</v>
+        <v>1367.711011691409</v>
       </c>
       <c r="AC3" t="n">
-        <v>1173.207350100294</v>
+        <v>1237.178592330042</v>
       </c>
       <c r="AD3" t="n">
-        <v>947923.156620458</v>
+        <v>999610.3727482558</v>
       </c>
       <c r="AE3" t="n">
-        <v>1296990.282306315</v>
+        <v>1367711.011691409</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.837985860015439e-06</v>
+        <v>3.124454146979225e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.1125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1173207.350100294</v>
+        <v>1237178.592330042</v>
       </c>
     </row>
     <row r="4">
@@ -9179,28 +9179,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>723.7997422771335</v>
+        <v>775.4868688963803</v>
       </c>
       <c r="AB4" t="n">
-        <v>990.3347391745713</v>
+        <v>1061.055346090117</v>
       </c>
       <c r="AC4" t="n">
-        <v>895.8185816112857</v>
+        <v>959.7897130598072</v>
       </c>
       <c r="AD4" t="n">
-        <v>723799.7422771335</v>
+        <v>775486.8688963803</v>
       </c>
       <c r="AE4" t="n">
-        <v>990334.7391745712</v>
+        <v>1061055.346090117</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.139292606728907e-06</v>
+        <v>3.63665564687205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.547222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>895818.5816112857</v>
+        <v>959789.7130598072</v>
       </c>
     </row>
     <row r="5">
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>623.4412893000537</v>
+        <v>675.0430750647288</v>
       </c>
       <c r="AB5" t="n">
-        <v>853.0198763088626</v>
+        <v>923.623716102211</v>
       </c>
       <c r="AC5" t="n">
-        <v>771.6088565348599</v>
+        <v>835.4743649514427</v>
       </c>
       <c r="AD5" t="n">
-        <v>623441.2893000536</v>
+        <v>675043.0750647287</v>
       </c>
       <c r="AE5" t="n">
-        <v>853019.8763088627</v>
+        <v>923623.716102211</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.302077657295919e-06</v>
+        <v>3.913379444032303e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.872222222222224</v>
       </c>
       <c r="AH5" t="n">
-        <v>771608.8565348599</v>
+        <v>835474.3649514427</v>
       </c>
     </row>
     <row r="6">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>568.2960423525903</v>
+        <v>609.7310845025594</v>
       </c>
       <c r="AB6" t="n">
-        <v>777.5677165987493</v>
+        <v>834.2609692533838</v>
       </c>
       <c r="AC6" t="n">
-        <v>703.3577450497082</v>
+        <v>754.6402732404644</v>
       </c>
       <c r="AD6" t="n">
-        <v>568296.0423525904</v>
+        <v>609731.0845025594</v>
       </c>
       <c r="AE6" t="n">
-        <v>777567.7165987493</v>
+        <v>834260.9692533838</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.402219138268038e-06</v>
+        <v>4.083613324670183e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.50138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>703357.7450497082</v>
+        <v>754640.2732404644</v>
       </c>
     </row>
     <row r="7">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>534.9947010857853</v>
+        <v>576.2591510351622</v>
       </c>
       <c r="AB7" t="n">
-        <v>732.0033523260174</v>
+        <v>788.4631932058051</v>
       </c>
       <c r="AC7" t="n">
-        <v>662.1419797531792</v>
+        <v>713.2133726612841</v>
       </c>
       <c r="AD7" t="n">
-        <v>534994.7010857853</v>
+        <v>576259.1510351622</v>
       </c>
       <c r="AE7" t="n">
-        <v>732003.3523260175</v>
+        <v>788463.193205805</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.457363125587487e-06</v>
+        <v>4.177354448369455e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.311111111111112</v>
       </c>
       <c r="AH7" t="n">
-        <v>662141.9797531791</v>
+        <v>713213.3726612841</v>
       </c>
     </row>
     <row r="8">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>532.8731975220187</v>
+        <v>574.1376474713956</v>
       </c>
       <c r="AB8" t="n">
-        <v>729.1006175559403</v>
+        <v>785.5604584357277</v>
       </c>
       <c r="AC8" t="n">
-        <v>659.5162779155443</v>
+        <v>710.5876708236492</v>
       </c>
       <c r="AD8" t="n">
-        <v>532873.1975220187</v>
+        <v>574137.6474713956</v>
       </c>
       <c r="AE8" t="n">
-        <v>729100.6175559403</v>
+        <v>785560.4584357277</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.464421555964376e-06</v>
+        <v>4.189353312202962e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.287500000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>659516.2779155442</v>
+        <v>710587.6708236492</v>
       </c>
     </row>
     <row r="9">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>535.0708928249112</v>
+        <v>576.3353427742881</v>
       </c>
       <c r="AB9" t="n">
-        <v>732.1076012248317</v>
+        <v>788.5674421046193</v>
       </c>
       <c r="AC9" t="n">
-        <v>662.2362792834048</v>
+        <v>713.3076721915098</v>
       </c>
       <c r="AD9" t="n">
-        <v>535070.8928249112</v>
+        <v>576335.342774288</v>
       </c>
       <c r="AE9" t="n">
-        <v>732107.6012248317</v>
+        <v>788567.4421046193</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.464421555964376e-06</v>
+        <v>4.189353312202962e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.287500000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>662236.2792834048</v>
+        <v>713307.6721915099</v>
       </c>
     </row>
   </sheetData>
@@ -10006,28 +10006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>979.4807294191135</v>
+        <v>1046.65241309262</v>
       </c>
       <c r="AB2" t="n">
-        <v>1340.168745631289</v>
+        <v>1432.076006638917</v>
       </c>
       <c r="AC2" t="n">
-        <v>1212.264921486886</v>
+        <v>1295.400682496597</v>
       </c>
       <c r="AD2" t="n">
-        <v>979480.7294191135</v>
+        <v>1046652.41309262</v>
       </c>
       <c r="AE2" t="n">
-        <v>1340168.745631289</v>
+        <v>1432076.006638917</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.712723007157466e-06</v>
+        <v>3.088444880578788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.90138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1212264.921486886</v>
+        <v>1295400.682496597</v>
       </c>
     </row>
     <row r="3">
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>537.446278575762</v>
+        <v>585.3164181809398</v>
       </c>
       <c r="AB3" t="n">
-        <v>735.3577088037691</v>
+        <v>800.8557456930835</v>
       </c>
       <c r="AC3" t="n">
-        <v>665.176201156563</v>
+        <v>724.4231973322334</v>
       </c>
       <c r="AD3" t="n">
-        <v>537446.2785757619</v>
+        <v>585316.4181809397</v>
       </c>
       <c r="AE3" t="n">
-        <v>735357.7088037691</v>
+        <v>800855.7456930835</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.386294362563811e-06</v>
+        <v>4.303053428263219e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.259722222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>665176.201156563</v>
+        <v>724423.1973322334</v>
       </c>
     </row>
     <row r="4">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.8078534232246</v>
+        <v>499.7632443744229</v>
       </c>
       <c r="AB4" t="n">
-        <v>618.1834374093947</v>
+        <v>683.7981189513586</v>
       </c>
       <c r="AC4" t="n">
-        <v>559.1848777689451</v>
+        <v>618.5373861953277</v>
       </c>
       <c r="AD4" t="n">
-        <v>451807.8534232246</v>
+        <v>499763.2443744229</v>
       </c>
       <c r="AE4" t="n">
-        <v>618183.4374093948</v>
+        <v>683798.1189513586</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.568448165572849e-06</v>
+        <v>4.631519839953979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.602777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>559184.8777689451</v>
+        <v>618537.3861953277</v>
       </c>
     </row>
     <row r="5">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>454.1350516178033</v>
+        <v>502.0904425690016</v>
       </c>
       <c r="AB5" t="n">
-        <v>621.3676126479556</v>
+        <v>686.9822941899195</v>
       </c>
       <c r="AC5" t="n">
-        <v>562.0651597917556</v>
+        <v>621.4176682181383</v>
       </c>
       <c r="AD5" t="n">
-        <v>454135.0516178033</v>
+        <v>502090.4425690016</v>
       </c>
       <c r="AE5" t="n">
-        <v>621367.6126479557</v>
+        <v>686982.2941899195</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.567970906700336e-06</v>
+        <v>4.630659229268325e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.604166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>562065.1597917556</v>
+        <v>621417.6682181383</v>
       </c>
     </row>
   </sheetData>
@@ -10621,28 +10621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>661.9775966592729</v>
+        <v>708.2362886652052</v>
       </c>
       <c r="AB2" t="n">
-        <v>905.7469521396401</v>
+        <v>969.0401353316162</v>
       </c>
       <c r="AC2" t="n">
-        <v>819.3037342512634</v>
+        <v>876.556304871938</v>
       </c>
       <c r="AD2" t="n">
-        <v>661977.5966592729</v>
+        <v>708236.2886652051</v>
       </c>
       <c r="AE2" t="n">
-        <v>905746.9521396401</v>
+        <v>969040.1353316162</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.078068356789217e-06</v>
+        <v>3.877011314309594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.07638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>819303.7342512634</v>
+        <v>876556.304871938</v>
       </c>
     </row>
     <row r="3">
@@ -10727,28 +10727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>422.969335545425</v>
+        <v>469.1425971882346</v>
       </c>
       <c r="AB3" t="n">
-        <v>578.7253049833727</v>
+        <v>641.9015985836027</v>
       </c>
       <c r="AC3" t="n">
-        <v>523.4925741218258</v>
+        <v>580.6394109293349</v>
       </c>
       <c r="AD3" t="n">
-        <v>422969.335545425</v>
+        <v>469142.5971882346</v>
       </c>
       <c r="AE3" t="n">
-        <v>578725.3049833727</v>
+        <v>641901.5985836027</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.583333940509339e-06</v>
+        <v>4.819675389056799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.909722222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>523492.5741218257</v>
+        <v>580639.4109293348</v>
       </c>
     </row>
     <row r="4">
@@ -10833,28 +10833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>425.7274195371785</v>
+        <v>471.9006811799881</v>
       </c>
       <c r="AB4" t="n">
-        <v>582.4990371789678</v>
+        <v>645.675330779198</v>
       </c>
       <c r="AC4" t="n">
-        <v>526.9061466131398</v>
+        <v>584.0529834206488</v>
       </c>
       <c r="AD4" t="n">
-        <v>425727.4195371785</v>
+        <v>471900.6811799881</v>
       </c>
       <c r="AE4" t="n">
-        <v>582499.0371789678</v>
+        <v>645675.330779198</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.582339649429535e-06</v>
+        <v>4.817820359719808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.912500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>526906.1466131398</v>
+        <v>584052.9834206488</v>
       </c>
     </row>
   </sheetData>
@@ -19135,28 +19135,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>468.7875759412814</v>
+        <v>522.4178301110943</v>
       </c>
       <c r="AB2" t="n">
-        <v>641.4158428510891</v>
+        <v>714.7951226060572</v>
       </c>
       <c r="AC2" t="n">
-        <v>580.20001504217</v>
+        <v>646.5760793257898</v>
       </c>
       <c r="AD2" t="n">
-        <v>468787.5759412814</v>
+        <v>522417.8301110943</v>
       </c>
       <c r="AE2" t="n">
-        <v>641415.8428510891</v>
+        <v>714795.1226060572</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.394117695306e-06</v>
+        <v>4.603977110594973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.944444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>580200.01504217</v>
+        <v>646576.0793257898</v>
       </c>
     </row>
     <row r="3">
@@ -19241,28 +19241,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.8571045163725</v>
+        <v>460.5206255482437</v>
       </c>
       <c r="AB3" t="n">
-        <v>568.9940367199347</v>
+        <v>630.1046366112239</v>
       </c>
       <c r="AC3" t="n">
-        <v>514.6900444435296</v>
+        <v>569.9683344504598</v>
       </c>
       <c r="AD3" t="n">
-        <v>415857.1045163725</v>
+        <v>460520.6255482438</v>
       </c>
       <c r="AE3" t="n">
-        <v>568994.0367199347</v>
+        <v>630104.6366112239</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.559713978684605e-06</v>
+        <v>4.92242490443965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.301388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>514690.0444435296</v>
+        <v>569968.3344504598</v>
       </c>
     </row>
   </sheetData>
@@ -19538,28 +19538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.1431303604388</v>
+        <v>455.4701900064829</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.3347046126056</v>
+        <v>623.1944078934958</v>
       </c>
       <c r="AC2" t="n">
-        <v>501.4297784180221</v>
+        <v>563.7176082629848</v>
       </c>
       <c r="AD2" t="n">
-        <v>405143.1303604388</v>
+        <v>455470.1900064829</v>
       </c>
       <c r="AE2" t="n">
-        <v>554334.7046126056</v>
+        <v>623194.4078934959</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.341285758130409e-06</v>
+        <v>4.829134415836034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.91388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>501429.7784180221</v>
+        <v>563717.6082629848</v>
       </c>
     </row>
   </sheetData>
@@ -19835,28 +19835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1415.963359833027</v>
+        <v>1485.33503113289</v>
       </c>
       <c r="AB2" t="n">
-        <v>1937.383536818221</v>
+        <v>2032.300917952834</v>
       </c>
       <c r="AC2" t="n">
-        <v>1752.482371199161</v>
+        <v>1838.340970695668</v>
       </c>
       <c r="AD2" t="n">
-        <v>1415963.359833027</v>
+        <v>1485335.03113289</v>
       </c>
       <c r="AE2" t="n">
-        <v>1937383.536818221</v>
+        <v>2032300.917952834</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.420217652944734e-06</v>
+        <v>2.495266391796441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.04722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1752482.371199161</v>
+        <v>1838340.970695668</v>
       </c>
     </row>
     <row r="3">
@@ -19941,28 +19941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>675.465888508827</v>
+        <v>734.756562620808</v>
       </c>
       <c r="AB3" t="n">
-        <v>924.2022281096391</v>
+        <v>1005.326344149585</v>
       </c>
       <c r="AC3" t="n">
-        <v>835.9976645848283</v>
+        <v>909.3794088483339</v>
       </c>
       <c r="AD3" t="n">
-        <v>675465.888508827</v>
+        <v>734756.562620808</v>
       </c>
       <c r="AE3" t="n">
-        <v>924202.2281096391</v>
+        <v>1005326.344149585</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.153560809384019e-06</v>
+        <v>3.783721388903899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.923611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>835997.6645848283</v>
+        <v>909379.4088483339</v>
       </c>
     </row>
     <row r="4">
@@ -20047,28 +20047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>534.6570863267033</v>
+        <v>584.1228753230687</v>
       </c>
       <c r="AB4" t="n">
-        <v>731.5414129181294</v>
+        <v>799.2226876995497</v>
       </c>
       <c r="AC4" t="n">
-        <v>661.7241271940439</v>
+        <v>722.9459961015912</v>
       </c>
       <c r="AD4" t="n">
-        <v>534657.0863267033</v>
+        <v>584122.8753230687</v>
       </c>
       <c r="AE4" t="n">
-        <v>731541.4129181294</v>
+        <v>799222.6876995497</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.421755757280301e-06</v>
+        <v>4.254929332663508e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.824999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>661724.1271940439</v>
+        <v>722945.9961015912</v>
       </c>
     </row>
     <row r="5">
@@ -20153,28 +20153,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>483.4065209437901</v>
+        <v>522.962173478519</v>
       </c>
       <c r="AB5" t="n">
-        <v>661.4181283458573</v>
+        <v>715.5399172161024</v>
       </c>
       <c r="AC5" t="n">
-        <v>598.2933104827015</v>
+        <v>647.2497917835781</v>
       </c>
       <c r="AD5" t="n">
-        <v>483406.5209437901</v>
+        <v>522962.1734785191</v>
       </c>
       <c r="AE5" t="n">
-        <v>661418.1283458574</v>
+        <v>715539.9172161024</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.527310395408154e-06</v>
+        <v>4.440384667958455e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.455555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>598293.3104827015</v>
+        <v>647249.7917835781</v>
       </c>
     </row>
     <row r="6">
@@ -20259,28 +20259,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>483.6921879344239</v>
+        <v>523.2478404691529</v>
       </c>
       <c r="AB6" t="n">
-        <v>661.8089905251808</v>
+        <v>715.9307793954257</v>
       </c>
       <c r="AC6" t="n">
-        <v>598.6468693242089</v>
+        <v>647.6033506250853</v>
       </c>
       <c r="AD6" t="n">
-        <v>483692.1879344239</v>
+        <v>523247.8404691529</v>
       </c>
       <c r="AE6" t="n">
-        <v>661808.9905251808</v>
+        <v>715930.7793954257</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.533465184803364e-06</v>
+        <v>4.451198390133088e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.434722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>598646.8693242088</v>
+        <v>647603.3506250853</v>
       </c>
     </row>
   </sheetData>
@@ -20556,28 +20556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2285.528448664367</v>
+        <v>2388.022175533951</v>
       </c>
       <c r="AB2" t="n">
-        <v>3127.160853861669</v>
+        <v>3267.397292668746</v>
       </c>
       <c r="AC2" t="n">
-        <v>2828.709010966817</v>
+        <v>2955.561480877219</v>
       </c>
       <c r="AD2" t="n">
-        <v>2285528.448664367</v>
+        <v>2388022.175533951</v>
       </c>
       <c r="AE2" t="n">
-        <v>3127160.853861669</v>
+        <v>3267397.292668746</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.093815622861611e-06</v>
+        <v>1.870302817660084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.82638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2828709.010966817</v>
+        <v>2955561.480877219</v>
       </c>
     </row>
     <row r="3">
@@ -20662,28 +20662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>883.6384690451885</v>
+        <v>945.1005688251104</v>
       </c>
       <c r="AB3" t="n">
-        <v>1209.033136725573</v>
+        <v>1293.128293160935</v>
       </c>
       <c r="AC3" t="n">
-        <v>1093.644711045149</v>
+        <v>1169.713943778613</v>
       </c>
       <c r="AD3" t="n">
-        <v>883638.4690451885</v>
+        <v>945100.5688251103</v>
       </c>
       <c r="AE3" t="n">
-        <v>1209033.136725573</v>
+        <v>1293128.293160935</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.896273281927225e-06</v>
+        <v>3.242415986858453e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.85972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1093644.711045149</v>
+        <v>1169713.943778613</v>
       </c>
     </row>
     <row r="4">
@@ -20768,28 +20768,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>688.3470095947443</v>
+        <v>739.46595125623</v>
       </c>
       <c r="AB4" t="n">
-        <v>941.8267462543466</v>
+        <v>1011.769937444133</v>
       </c>
       <c r="AC4" t="n">
-        <v>851.9401234539716</v>
+        <v>915.2080346424899</v>
       </c>
       <c r="AD4" t="n">
-        <v>688347.0095947443</v>
+        <v>739465.95125623</v>
       </c>
       <c r="AE4" t="n">
-        <v>941826.7462543467</v>
+        <v>1011769.937444133</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.189410530998312e-06</v>
+        <v>3.743648014852759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.405555555555557</v>
       </c>
       <c r="AH4" t="n">
-        <v>851940.1234539716</v>
+        <v>915208.0346424899</v>
       </c>
     </row>
     <row r="5">
@@ -20874,28 +20874,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>593.1042391886465</v>
+        <v>644.3084321961526</v>
       </c>
       <c r="AB5" t="n">
-        <v>811.5113859702426</v>
+        <v>881.571221812678</v>
       </c>
       <c r="AC5" t="n">
-        <v>734.0618782566255</v>
+        <v>797.4353016958559</v>
       </c>
       <c r="AD5" t="n">
-        <v>593104.2391886464</v>
+        <v>644308.4321961526</v>
       </c>
       <c r="AE5" t="n">
-        <v>811511.3859702426</v>
+        <v>881571.221812678</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.34895311066472e-06</v>
+        <v>4.016448046275051e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.766666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>734061.8782566255</v>
+        <v>797435.3016958558</v>
       </c>
     </row>
     <row r="6">
@@ -20980,28 +20980,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>537.7871104421984</v>
+        <v>578.7334861858401</v>
       </c>
       <c r="AB6" t="n">
-        <v>735.8240499998682</v>
+        <v>791.8486877189252</v>
       </c>
       <c r="AC6" t="n">
-        <v>665.5980354034203</v>
+        <v>716.2757603296435</v>
       </c>
       <c r="AD6" t="n">
-        <v>537787.1104421983</v>
+        <v>578733.4861858401</v>
       </c>
       <c r="AE6" t="n">
-        <v>735824.0499998681</v>
+        <v>791848.6877189253</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.450668918890702e-06</v>
+        <v>4.190370742888148e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.402777777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>665598.0354034203</v>
+        <v>716275.7603296435</v>
       </c>
     </row>
     <row r="7">
@@ -21086,28 +21086,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>521.9551096425903</v>
+        <v>562.901485386232</v>
       </c>
       <c r="AB7" t="n">
-        <v>714.1620080472638</v>
+        <v>770.186645766321</v>
       </c>
       <c r="AC7" t="n">
-        <v>646.0033883319059</v>
+        <v>696.681113258129</v>
       </c>
       <c r="AD7" t="n">
-        <v>521955.1096425903</v>
+        <v>562901.485386232</v>
       </c>
       <c r="AE7" t="n">
-        <v>714162.0080472638</v>
+        <v>770186.645766321</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.478396114427522e-06</v>
+        <v>4.237781157271018e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.309722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>646003.3883319058</v>
+        <v>696681.113258129</v>
       </c>
     </row>
     <row r="8">
@@ -21192,28 +21192,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>523.8221958050973</v>
+        <v>564.768571548739</v>
       </c>
       <c r="AB8" t="n">
-        <v>716.7166377048338</v>
+        <v>772.741275423891</v>
       </c>
       <c r="AC8" t="n">
-        <v>648.3142077204027</v>
+        <v>698.9919326466259</v>
       </c>
       <c r="AD8" t="n">
-        <v>523822.1958050973</v>
+        <v>564768.571548739</v>
       </c>
       <c r="AE8" t="n">
-        <v>716716.6377048339</v>
+        <v>772741.275423891</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.478840935746294e-06</v>
+        <v>4.238541752154166e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.306944444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>648314.2077204027</v>
+        <v>698991.9326466259</v>
       </c>
     </row>
   </sheetData>
@@ -21489,28 +21489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>426.8483599232326</v>
+        <v>483.7285183358918</v>
       </c>
       <c r="AB2" t="n">
-        <v>584.0327572675667</v>
+        <v>661.8586993832532</v>
       </c>
       <c r="AC2" t="n">
-        <v>528.2934906090724</v>
+        <v>598.6918340386336</v>
       </c>
       <c r="AD2" t="n">
-        <v>426848.3599232326</v>
+        <v>483728.5183358918</v>
       </c>
       <c r="AE2" t="n">
-        <v>584032.7572675667</v>
+        <v>661858.6993832532</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.08889540080474e-06</v>
+        <v>4.477464969221072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>528293.4906090724</v>
+        <v>598691.8340386336</v>
       </c>
     </row>
   </sheetData>
@@ -21786,28 +21786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>757.2771713532311</v>
+        <v>813.5466352037075</v>
       </c>
       <c r="AB2" t="n">
-        <v>1036.140034556423</v>
+        <v>1113.130397430188</v>
       </c>
       <c r="AC2" t="n">
-        <v>937.2522838900294</v>
+        <v>1006.894794587776</v>
       </c>
       <c r="AD2" t="n">
-        <v>757277.1713532311</v>
+        <v>813546.6352037075</v>
       </c>
       <c r="AE2" t="n">
-        <v>1036140.034556423</v>
+        <v>1113130.397430188</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.944410059675592e-06</v>
+        <v>3.582444355529874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.66388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>937252.2838900294</v>
+        <v>1006894.794587776</v>
       </c>
     </row>
     <row r="3">
@@ -21892,28 +21892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>441.3644067861384</v>
+        <v>488.1702858069638</v>
       </c>
       <c r="AB3" t="n">
-        <v>603.8942529881846</v>
+        <v>667.9361215941249</v>
       </c>
       <c r="AC3" t="n">
-        <v>546.2594330538989</v>
+        <v>604.1892356034153</v>
       </c>
       <c r="AD3" t="n">
-        <v>441364.4067861384</v>
+        <v>488170.2858069637</v>
       </c>
       <c r="AE3" t="n">
-        <v>603894.2529881846</v>
+        <v>667936.1215941248</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.556947401898079e-06</v>
+        <v>4.711003083806733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.869444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>546259.4330538989</v>
+        <v>604189.2356034153</v>
       </c>
     </row>
     <row r="4">
@@ -21998,28 +21998,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>433.9955226378061</v>
+        <v>480.8014016586316</v>
       </c>
       <c r="AB4" t="n">
-        <v>593.8118206042119</v>
+        <v>657.853689210152</v>
       </c>
       <c r="AC4" t="n">
-        <v>537.1392538658697</v>
+        <v>595.0690564153862</v>
       </c>
       <c r="AD4" t="n">
-        <v>433995.5226378061</v>
+        <v>480801.4016586316</v>
       </c>
       <c r="AE4" t="n">
-        <v>593811.8206042119</v>
+        <v>657853.689210152</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.583565260277782e-06</v>
+        <v>4.760044692100288e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.779166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>537139.2538658697</v>
+        <v>595069.0564153861</v>
       </c>
     </row>
   </sheetData>
@@ -22295,28 +22295,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1113.127369705845</v>
+        <v>1181.123719392161</v>
       </c>
       <c r="AB2" t="n">
-        <v>1523.02997494524</v>
+        <v>1616.065580373292</v>
       </c>
       <c r="AC2" t="n">
-        <v>1377.674131722461</v>
+        <v>1461.830549544752</v>
       </c>
       <c r="AD2" t="n">
-        <v>1113127.369705845</v>
+        <v>1181123.719392161</v>
       </c>
       <c r="AE2" t="n">
-        <v>1523029.97494524</v>
+        <v>1616065.580373292</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.607287168603566e-06</v>
+        <v>2.871301229656317e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.58611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1377674.131722461</v>
+        <v>1461830.549544752</v>
       </c>
     </row>
     <row r="3">
@@ -22401,28 +22401,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>584.0055837648476</v>
+        <v>632.4038127687674</v>
       </c>
       <c r="AB3" t="n">
-        <v>799.0622042150533</v>
+        <v>865.2827963173862</v>
       </c>
       <c r="AC3" t="n">
-        <v>722.8008289356152</v>
+        <v>782.7014206688862</v>
       </c>
       <c r="AD3" t="n">
-        <v>584005.5837648476</v>
+        <v>632403.8127687674</v>
       </c>
       <c r="AE3" t="n">
-        <v>799062.2042150532</v>
+        <v>865282.7963173862</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.301739621281054e-06</v>
+        <v>4.11188985641871e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.487500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>722800.8289356151</v>
+        <v>782701.4206688862</v>
       </c>
     </row>
     <row r="4">
@@ -22507,28 +22507,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>467.8954723711369</v>
+        <v>516.3789527210771</v>
       </c>
       <c r="AB4" t="n">
-        <v>640.1952273895857</v>
+        <v>706.5324641445682</v>
       </c>
       <c r="AC4" t="n">
-        <v>579.0958934071678</v>
+        <v>639.1019973911513</v>
       </c>
       <c r="AD4" t="n">
-        <v>467895.4723711369</v>
+        <v>516378.9527210771</v>
       </c>
       <c r="AE4" t="n">
-        <v>640195.2273895857</v>
+        <v>706532.4641445682</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.542919169030038e-06</v>
+        <v>4.542739517603568e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.587499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>579095.8934071678</v>
+        <v>639101.9973911513</v>
       </c>
     </row>
     <row r="5">
@@ -22613,28 +22613,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>463.1026323621491</v>
+        <v>502.0430301803302</v>
       </c>
       <c r="AB5" t="n">
-        <v>633.6374522441106</v>
+        <v>686.9174224680523</v>
       </c>
       <c r="AC5" t="n">
-        <v>573.1639831176815</v>
+        <v>621.3589877623583</v>
       </c>
       <c r="AD5" t="n">
-        <v>463102.6323621491</v>
+        <v>502043.0301803302</v>
       </c>
       <c r="AE5" t="n">
-        <v>633637.4522441106</v>
+        <v>686917.4224680524</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.558012543595815e-06</v>
+        <v>4.569702729776805e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.536111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>573163.9831176815</v>
+        <v>621358.9877623583</v>
       </c>
     </row>
   </sheetData>
